--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H2">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N2">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O2">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P2">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q2">
-        <v>1.080583078485333</v>
+        <v>3.644097659508</v>
       </c>
       <c r="R2">
-        <v>9.725247706368</v>
+        <v>32.796878935572</v>
       </c>
       <c r="S2">
-        <v>0.02472411860473329</v>
+        <v>0.06767418784048243</v>
       </c>
       <c r="T2">
-        <v>0.02472411860473329</v>
+        <v>0.06767418784048243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H3">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N3">
         <v>16.859836</v>
       </c>
       <c r="O3">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P3">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q3">
-        <v>4.198713611356444</v>
+        <v>6.635812271732</v>
       </c>
       <c r="R3">
-        <v>37.788422502208</v>
+        <v>59.722310445588</v>
       </c>
       <c r="S3">
-        <v>0.09606803528701915</v>
+        <v>0.1232330327316202</v>
       </c>
       <c r="T3">
-        <v>0.09606803528701914</v>
+        <v>0.1232330327316202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H4">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N4">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O4">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P4">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q4">
-        <v>1.772109967783112</v>
+        <v>3.961730240248</v>
       </c>
       <c r="R4">
-        <v>15.948989710048</v>
+        <v>35.655572162232</v>
       </c>
       <c r="S4">
-        <v>0.04054649558783965</v>
+        <v>0.07357291200808834</v>
       </c>
       <c r="T4">
-        <v>0.04054649558783964</v>
+        <v>0.07357291200808834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H5">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I5">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J5">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N5">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O5">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P5">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q5">
-        <v>1.929956488328889</v>
+        <v>1.195825936012</v>
       </c>
       <c r="R5">
-        <v>17.36960839496</v>
+        <v>10.762433424108</v>
       </c>
       <c r="S5">
-        <v>0.04415807916065352</v>
+        <v>0.0222075686712312</v>
       </c>
       <c r="T5">
-        <v>0.04415807916065351</v>
+        <v>0.0222075686712312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H6">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I6">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J6">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N6">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O6">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P6">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q6">
-        <v>7.37112661802311</v>
+        <v>15.191925676789</v>
       </c>
       <c r="R6">
-        <v>66.34013956220799</v>
+        <v>136.727331091101</v>
       </c>
       <c r="S6">
-        <v>0.1686539539467567</v>
+        <v>0.2821277934819326</v>
       </c>
       <c r="T6">
-        <v>0.1686539539467567</v>
+        <v>0.2821277934819326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H7">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I7">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J7">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N7">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O7">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P7">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q7">
-        <v>3.964207696336</v>
+        <v>2.236730912192999</v>
       </c>
       <c r="R7">
-        <v>35.677869267024</v>
+        <v>20.130578209737</v>
       </c>
       <c r="S7">
-        <v>0.09070245796870317</v>
+        <v>0.04153811506818932</v>
       </c>
       <c r="T7">
-        <v>0.09070245796870316</v>
+        <v>0.04153811506818932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.439786</v>
       </c>
       <c r="I8">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J8">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N8">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O8">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P8">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q8">
-        <v>0.6941457868906666</v>
+        <v>1.481169289069333</v>
       </c>
       <c r="R8">
-        <v>6.247312082016</v>
+        <v>13.330523601624</v>
       </c>
       <c r="S8">
-        <v>0.01588229827559132</v>
+        <v>0.02750665269096141</v>
       </c>
       <c r="T8">
-        <v>0.01588229827559132</v>
+        <v>0.0275066526909614</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.439786</v>
       </c>
       <c r="I9">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J9">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N9">
         <v>16.859836</v>
       </c>
       <c r="O9">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P9">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q9">
         <v>2.697172870566222</v>
@@ -1013,10 +1013,10 @@
         <v>24.274555835096</v>
       </c>
       <c r="S9">
-        <v>0.06171225820306362</v>
+        <v>0.05008893847965521</v>
       </c>
       <c r="T9">
-        <v>0.06171225820306361</v>
+        <v>0.05008893847965521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.439786</v>
       </c>
       <c r="I10">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J10">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N10">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O10">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P10">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q10">
-        <v>1.138369360519556</v>
+        <v>1.610273299927111</v>
       </c>
       <c r="R10">
-        <v>10.245324244676</v>
+        <v>14.492459699344</v>
       </c>
       <c r="S10">
-        <v>0.02604628893960781</v>
+        <v>0.02990423088400262</v>
       </c>
       <c r="T10">
-        <v>0.02604628893960781</v>
+        <v>0.02990423088400262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>1.439786</v>
       </c>
       <c r="I11">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J11">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N11">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O11">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P11">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q11">
-        <v>1.239766929474445</v>
+        <v>0.4860519165484444</v>
       </c>
       <c r="R11">
-        <v>11.15790236527</v>
+        <v>4.374467248936</v>
       </c>
       <c r="S11">
-        <v>0.02836630076561784</v>
+        <v>0.009026423486456979</v>
       </c>
       <c r="T11">
-        <v>0.02836630076561783</v>
+        <v>0.009026423486456979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.439786</v>
       </c>
       <c r="I12">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J12">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N12">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O12">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P12">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q12">
-        <v>4.735069971399556</v>
+        <v>6.174865729949111</v>
       </c>
       <c r="R12">
-        <v>42.61562974259601</v>
+        <v>55.573791569542</v>
       </c>
       <c r="S12">
-        <v>0.1083400563135717</v>
+        <v>0.114672838750088</v>
       </c>
       <c r="T12">
-        <v>0.1083400563135717</v>
+        <v>0.1146728387500879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.439786</v>
       </c>
       <c r="I13">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J13">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N13">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O13">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P13">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q13">
-        <v>2.546530780982</v>
+        <v>0.9091351123393332</v>
       </c>
       <c r="R13">
-        <v>22.918777028838</v>
+        <v>8.182216011053999</v>
       </c>
       <c r="S13">
-        <v>0.05826551452930016</v>
+        <v>0.01688346090404635</v>
       </c>
       <c r="T13">
-        <v>0.05826551452930016</v>
+        <v>0.01688346090404635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H14">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I14">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J14">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N14">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O14">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P14">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q14">
-        <v>0.5498398730293332</v>
+        <v>0.6320337758333333</v>
       </c>
       <c r="R14">
-        <v>4.948558857263999</v>
+        <v>5.688303982499999</v>
       </c>
       <c r="S14">
-        <v>0.01258052851747784</v>
+        <v>0.01173743858254589</v>
       </c>
       <c r="T14">
-        <v>0.01258052851747784</v>
+        <v>0.01173743858254589</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H15">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I15">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J15">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N15">
         <v>16.859836</v>
       </c>
       <c r="O15">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P15">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q15">
-        <v>2.136457811453778</v>
+        <v>1.150917971388889</v>
       </c>
       <c r="R15">
-        <v>19.228120303084</v>
+        <v>10.3582617425</v>
       </c>
       <c r="S15">
-        <v>0.04888290162606787</v>
+        <v>0.02137358717089774</v>
       </c>
       <c r="T15">
-        <v>0.04888290162606786</v>
+        <v>0.02137358717089774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H16">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I16">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J16">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N16">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O16">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P16">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q16">
-        <v>0.9017138423504445</v>
+        <v>0.6871240994444444</v>
       </c>
       <c r="R16">
-        <v>8.115424581154</v>
+        <v>6.184116895</v>
       </c>
       <c r="S16">
-        <v>0.02063152794975474</v>
+        <v>0.01276051569424839</v>
       </c>
       <c r="T16">
-        <v>0.02063152794975473</v>
+        <v>0.01276051569424839</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H17">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I17">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J17">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N17">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O17">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P17">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q17">
-        <v>0.9820318785505556</v>
+        <v>0.2074045352777778</v>
       </c>
       <c r="R17">
-        <v>8.838286906955</v>
+        <v>1.8666408175</v>
       </c>
       <c r="S17">
-        <v>0.0224692326969865</v>
+        <v>0.003851689716035582</v>
       </c>
       <c r="T17">
-        <v>0.0224692326969865</v>
+        <v>0.003851689716035582</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H18">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I18">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J18">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N18">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O18">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P18">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q18">
-        <v>3.750696641870444</v>
+        <v>2.634893750069445</v>
       </c>
       <c r="R18">
-        <v>33.756269776834</v>
+        <v>23.714043750625</v>
       </c>
       <c r="S18">
-        <v>0.08581725039963078</v>
+        <v>0.04893235891103629</v>
       </c>
       <c r="T18">
-        <v>0.08581725039963078</v>
+        <v>0.04893235891103628</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2047916666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.614375</v>
+      </c>
+      <c r="I19">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="J19">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.894313</v>
+      </c>
+      <c r="N19">
+        <v>5.682938999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.06805581944816448</v>
+      </c>
+      <c r="P19">
+        <v>0.06805581944816448</v>
+      </c>
+      <c r="Q19">
+        <v>0.3879395164583333</v>
+      </c>
+      <c r="R19">
+        <v>3.491455648125</v>
+      </c>
+      <c r="S19">
+        <v>0.007204387522120287</v>
+      </c>
+      <c r="T19">
+        <v>0.007204387522120285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.207213</v>
+      </c>
+      <c r="I20">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J20">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.086228</v>
+      </c>
+      <c r="N20">
+        <v>9.258683999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1108770174431943</v>
+      </c>
+      <c r="P20">
+        <v>0.1108770174431943</v>
+      </c>
+      <c r="Q20">
+        <v>0.213168854188</v>
+      </c>
+      <c r="R20">
+        <v>1.918519687692</v>
+      </c>
+      <c r="S20">
+        <v>0.003958738329204608</v>
+      </c>
+      <c r="T20">
+        <v>0.003958738329204608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.207213</v>
+      </c>
+      <c r="I21">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J21">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.619945333333334</v>
+      </c>
+      <c r="N21">
+        <v>16.859836</v>
+      </c>
+      <c r="O21">
+        <v>0.2019043235800461</v>
+      </c>
+      <c r="P21">
+        <v>0.2019043235800461</v>
+      </c>
+      <c r="Q21">
+        <v>0.3881752441186667</v>
+      </c>
+      <c r="R21">
+        <v>3.493577197068</v>
+      </c>
+      <c r="S21">
+        <v>0.007208765197873014</v>
+      </c>
+      <c r="T21">
+        <v>0.007208765197873014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.207213</v>
+      </c>
+      <c r="I22">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J22">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.355234666666667</v>
+      </c>
+      <c r="N22">
+        <v>10.065704</v>
+      </c>
+      <c r="O22">
+        <v>0.1205414547019891</v>
+      </c>
+      <c r="P22">
+        <v>0.1205414547019891</v>
+      </c>
+      <c r="Q22">
+        <v>0.2317494136613334</v>
+      </c>
+      <c r="R22">
+        <v>2.085744722952</v>
+      </c>
+      <c r="S22">
+        <v>0.004303796115649712</v>
+      </c>
+      <c r="T22">
+        <v>0.004303796115649712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.207213</v>
+      </c>
+      <c r="I23">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J23">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.012758666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.038276</v>
+      </c>
+      <c r="O23">
+        <v>0.03638475846559173</v>
+      </c>
+      <c r="P23">
+        <v>0.03638475846559173</v>
+      </c>
+      <c r="Q23">
+        <v>0.06995225386533334</v>
+      </c>
+      <c r="R23">
+        <v>0.6295702847879999</v>
+      </c>
+      <c r="S23">
+        <v>0.001299076591867965</v>
+      </c>
+      <c r="T23">
+        <v>0.001299076591867965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.3801563333333333</v>
-      </c>
-      <c r="H19">
-        <v>1.140469</v>
-      </c>
-      <c r="I19">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="J19">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.306061</v>
-      </c>
-      <c r="N19">
-        <v>15.918183</v>
-      </c>
-      <c r="O19">
-        <v>0.1951206737256277</v>
-      </c>
-      <c r="P19">
-        <v>0.1951206737256277</v>
-      </c>
-      <c r="Q19">
-        <v>2.017132694203</v>
-      </c>
-      <c r="R19">
-        <v>18.154194247827</v>
-      </c>
-      <c r="S19">
-        <v>0.0461527012276244</v>
-      </c>
-      <c r="T19">
-        <v>0.04615270122762438</v>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.207213</v>
+      </c>
+      <c r="I24">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J24">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>12.86621566666667</v>
+      </c>
+      <c r="N24">
+        <v>38.598647</v>
+      </c>
+      <c r="O24">
+        <v>0.4622366263610143</v>
+      </c>
+      <c r="P24">
+        <v>0.4622366263610142</v>
+      </c>
+      <c r="Q24">
+        <v>0.8886823823123334</v>
+      </c>
+      <c r="R24">
+        <v>7.998141440811001</v>
+      </c>
+      <c r="S24">
+        <v>0.01650363521795737</v>
+      </c>
+      <c r="T24">
+        <v>0.01650363521795737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.207213</v>
+      </c>
+      <c r="I25">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J25">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.894313</v>
+      </c>
+      <c r="N25">
+        <v>5.682938999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.06805581944816448</v>
+      </c>
+      <c r="P25">
+        <v>0.06805581944816448</v>
+      </c>
+      <c r="Q25">
+        <v>0.130842093223</v>
+      </c>
+      <c r="R25">
+        <v>1.177578839007</v>
+      </c>
+      <c r="S25">
+        <v>0.002429855953808522</v>
+      </c>
+      <c r="T25">
+        <v>0.002429855953808522</v>
       </c>
     </row>
   </sheetData>
